--- a/teaching/traditional_assets/database/data/oman/oman_education.xlsx
+++ b/teaching/traditional_assets/database/data/oman/oman_education.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0317</v>
+        <v>-0.0215</v>
       </c>
       <c r="E2">
-        <v>-0.008060000000000001</v>
+        <v>-0.0186</v>
       </c>
       <c r="G2">
-        <v>0.3434285714285714</v>
+        <v>0.3686666666666667</v>
       </c>
       <c r="H2">
-        <v>0.3434285714285714</v>
+        <v>0.3686666666666667</v>
       </c>
       <c r="I2">
-        <v>0.3314166489042012</v>
+        <v>0.284</v>
       </c>
       <c r="J2">
-        <v>0.2797133095080158</v>
+        <v>0.2681780885780886</v>
       </c>
       <c r="K2">
-        <v>4.77</v>
+        <v>4.05</v>
       </c>
       <c r="L2">
-        <v>0.2725714285714285</v>
+        <v>0.27</v>
       </c>
       <c r="M2">
-        <v>5.73</v>
+        <v>3.51</v>
       </c>
       <c r="N2">
-        <v>0.1425373134328358</v>
+        <v>0.09385026737967914</v>
       </c>
       <c r="O2">
-        <v>1.20125786163522</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="P2">
-        <v>5.73</v>
+        <v>3.51</v>
       </c>
       <c r="Q2">
-        <v>0.1425373134328358</v>
+        <v>0.09385026737967914</v>
       </c>
       <c r="R2">
-        <v>1.20125786163522</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.2761194029850746</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.1747252747252747</v>
+        <v>0.1416083916083916</v>
       </c>
       <c r="X2">
-        <v>0.09795435003961757</v>
+        <v>0.08725423634401565</v>
       </c>
       <c r="Y2">
-        <v>0.07677092468565715</v>
+        <v>0.05435415526437594</v>
       </c>
       <c r="Z2">
-        <v>1.668884977047366</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA2">
-        <v>0.4668093401181278</v>
+        <v>0.229866933066933</v>
       </c>
       <c r="AB2">
-        <v>0.09773371737000672</v>
+        <v>0.08725423634401565</v>
       </c>
       <c r="AC2">
-        <v>0.3690756227481211</v>
+        <v>0.1426126967229174</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.1860432208823896</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.1860432208823896</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-10.91395677911761</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.004606621645623167</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.006462966078902689</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.3726675091203656</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-0.6170943179778734</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-1.682435143998398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -719,46 +719,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0317</v>
+        <v>-0.0215</v>
       </c>
       <c r="E3">
-        <v>-0.008060000000000001</v>
+        <v>-0.0186</v>
       </c>
       <c r="G3">
-        <v>0.3434285714285714</v>
+        <v>0.3686666666666667</v>
       </c>
       <c r="H3">
-        <v>0.3434285714285714</v>
+        <v>0.3686666666666667</v>
       </c>
       <c r="I3">
-        <v>0.3314166489042012</v>
+        <v>0.284</v>
       </c>
       <c r="J3">
-        <v>0.2797133095080158</v>
+        <v>0.2681780885780886</v>
       </c>
       <c r="K3">
-        <v>4.77</v>
+        <v>4.05</v>
       </c>
       <c r="L3">
-        <v>0.2725714285714285</v>
+        <v>0.27</v>
       </c>
       <c r="M3">
-        <v>5.73</v>
+        <v>3.51</v>
       </c>
       <c r="N3">
-        <v>0.1425373134328358</v>
+        <v>0.09385026737967914</v>
       </c>
       <c r="O3">
-        <v>1.20125786163522</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="P3">
-        <v>5.73</v>
+        <v>3.51</v>
       </c>
       <c r="Q3">
-        <v>0.1425373134328358</v>
+        <v>0.09385026737967914</v>
       </c>
       <c r="R3">
-        <v>1.20125786163522</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,55 +767,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.2761194029850746</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.1747252747252747</v>
+        <v>0.1416083916083916</v>
       </c>
       <c r="X3">
-        <v>0.09795435003961757</v>
+        <v>0.08725423634401565</v>
       </c>
       <c r="Y3">
-        <v>0.07677092468565715</v>
+        <v>0.05435415526437594</v>
       </c>
       <c r="Z3">
-        <v>1.668884977047366</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA3">
-        <v>0.4668093401181278</v>
+        <v>0.229866933066933</v>
       </c>
       <c r="AB3">
-        <v>0.09773371737000672</v>
+        <v>0.08725423634401565</v>
       </c>
       <c r="AC3">
-        <v>0.3690756227481211</v>
+        <v>0.1426126967229174</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.1860432208823896</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.1860432208823896</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-10.91395677911761</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004606621645623167</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.006462966078902689</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.3726675091203656</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-0.6170943179778734</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-1.682435143998398</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
